--- a/biology/Botanique/Calvatia/Calvatia.xlsx
+++ b/biology/Botanique/Calvatia/Calvatia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calvatia, auparavant Langermannia, est un genre de champignons basidiomycètes de la famille des Agaricaceae (ou des Lycoperdaceae selon les classifications), appartenant à l'ordre des Agaricales.
 			Calvatia gigantea
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (29 octobre 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (29 octobre 2013) :
 Calvatia agaricoides
 Calvatia ahmadii
 Calvatia aniodina
@@ -578,7 +592,7 @@
 Calvatia turneri
 Calvatia vinosa
 Calvatia violascens
-Selon Index Fungorum                                      (29 octobre 2013)[2] :
+Selon Index Fungorum                                      (29 octobre 2013) :
 Calvatia agaricoides Dissing &amp; M. Lange 1962
 Calvatia ahmadii Khalid &amp; S.H. Iqbal 2004
 Calvatia aniodina Pat. 1912
@@ -650,7 +664,7 @@
 Calvatia verrucosa Gardezi 2005
 Calvatia vinosa Kasuya &amp; Retn. 2006
 Calvatia violascens (Cooke &amp; Massee) R.T. Baker 1907
-Selon NCBI  (29 octobre 2013)[3] :
+Selon NCBI  (29 octobre 2013) :
 Calvatia bicolor
 Calvatia candida
 Calvatia chilensis
